--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_21_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_21_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2811064.814121041</v>
+        <v>2808812.734409835</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -665,16 +665,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>282.3935320802018</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>149.3482793282688</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247723</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>124.4197966289234</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -823,19 +823,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>163.4723387335435</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>293.6407719183052</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>55.45354938846374</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,7 +905,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -914,7 +914,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247807</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1057,22 +1057,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>57.68750238080799</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1114,13 +1114,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>9.595802811127546</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>71.68269007697964</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292592</v>
@@ -1184,7 +1184,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>194.5727296124804</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1193,10 +1193,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1309,7 +1309,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>149.2419515106231</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>26.05155675490774</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444152</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1528,13 +1528,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>75.0888690599473</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>54.27601060788903</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>172.3494546525288</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710095</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>141.6930519056953</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>260.4394343112834</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2135,7 +2135,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>53.11937003877912</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>25.52471385612634</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,13 +2479,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>94.30373791808226</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576175</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2719,16 +2719,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887052</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>26.703916880933</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2886,7 +2886,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>99.79417418837967</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>23.6255456814127</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3007,7 +3007,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>72.80978492054835</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>45.66054613217651</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>149.8873540667205</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3661,22 +3661,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3721,7 +3721,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>72.60410776434607</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3746,7 +3746,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,13 +3904,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833956</v>
       </c>
       <c r="F43" t="n">
-        <v>71.79687029690999</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,7 +4135,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,13 +4147,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>42.71572132711375</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>74.99129529219145</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1636.624422581789</v>
+        <v>1144.379366334374</v>
       </c>
       <c r="C2" t="n">
-        <v>1636.624422581789</v>
+        <v>1144.379366334374</v>
       </c>
       <c r="D2" t="n">
-        <v>1278.358723975039</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="E2" t="n">
-        <v>892.5704713767946</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F2" t="n">
-        <v>481.5845665871869</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G2" t="n">
-        <v>66.5121164321834</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4352,28 +4352,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883006</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>3072.075344883006</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2786.829352882803</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2413.363594621723</v>
+        <v>1921.118538374307</v>
       </c>
       <c r="Y2" t="n">
-        <v>2023.224262645911</v>
+        <v>1530.979206398496</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
@@ -4413,46 +4413,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,43 +4462,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>650.5934525793617</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C4" t="n">
-        <v>481.6572696514548</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D4" t="n">
-        <v>331.5406302391191</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E4" t="n">
-        <v>331.5406302391191</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4513,25 +4513,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T4" t="n">
-        <v>1837.464090846021</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1548.361223971664</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V4" t="n">
-        <v>1293.676735765777</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="W4" t="n">
-        <v>1004.259565728817</v>
+        <v>845.4915543310562</v>
       </c>
       <c r="X4" t="n">
-        <v>776.2700148307995</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="Y4" t="n">
-        <v>776.2700148307995</v>
+        <v>680.3679798527295</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1628.178203944123</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
@@ -4562,55 +4562,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609173</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609173</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609173</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>3072.075344883009</v>
       </c>
       <c r="V5" t="n">
-        <v>2994.5429342656</v>
+        <v>2741.012457539438</v>
       </c>
       <c r="W5" t="n">
-        <v>2641.774278995485</v>
+        <v>2388.243802269324</v>
       </c>
       <c r="X5" t="n">
-        <v>2641.774278995485</v>
+        <v>2014.778044008244</v>
       </c>
       <c r="Y5" t="n">
-        <v>2641.774278995485</v>
+        <v>2014.778044008244</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4620,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4699,43 +4699,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>270.9995076393842</v>
+        <v>461.867526608567</v>
       </c>
       <c r="C7" t="n">
-        <v>270.9995076393842</v>
+        <v>461.867526608567</v>
       </c>
       <c r="D7" t="n">
-        <v>270.9995076393842</v>
+        <v>311.7508871962312</v>
       </c>
       <c r="E7" t="n">
-        <v>270.9995076393842</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791191</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484845</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="U7" t="n">
-        <v>1224.739181610489</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V7" t="n">
-        <v>970.0546934046018</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W7" t="n">
-        <v>680.6375233676413</v>
+        <v>1092.298121480354</v>
       </c>
       <c r="X7" t="n">
-        <v>452.6479724696239</v>
+        <v>864.3085705823369</v>
       </c>
       <c r="Y7" t="n">
-        <v>452.6479724696239</v>
+        <v>643.5159914388067</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.583838282732</v>
+        <v>1311.909787855439</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>942.947270915027</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>584.6815723082766</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>198.8933197100324</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>191.9478189608289</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>180.9157728462295</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912089</v>
@@ -4808,46 +4808,46 @@
         <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3018.777042416588</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2765.246565690425</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2434.183678346854</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W8" t="n">
-        <v>2434.183678346854</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2434.183678346854</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>2434.183678346854</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031473</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4987,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672848</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U10" t="n">
-        <v>1273.262145272047</v>
+        <v>1326.594608541191</v>
       </c>
       <c r="V10" t="n">
-        <v>1273.262145272047</v>
+        <v>1300.279904748355</v>
       </c>
       <c r="W10" t="n">
-        <v>1273.262145272047</v>
+        <v>1010.862734711394</v>
       </c>
       <c r="X10" t="n">
-        <v>1273.262145272047</v>
+        <v>782.8731838133765</v>
       </c>
       <c r="Y10" t="n">
-        <v>1273.262145272047</v>
+        <v>562.0806046698464</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168629</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362701</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
@@ -5054,37 +5054,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797191</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637307</v>
+        <v>923.067041434951</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>923.4916164683287</v>
+        <v>923.4916164683283</v>
       </c>
       <c r="C13" t="n">
-        <v>754.5554335404219</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D13" t="n">
-        <v>604.4387941280861</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>604.4387941280861</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>457.5488466301757</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>290.3527473450557</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>148.6409161872538</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y13" t="n">
-        <v>923.4916164683287</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="14">
@@ -5270,13 +5270,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075811</v>
@@ -5294,34 +5294,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273906</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
-        <v>95.58405025273906</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>95.58405025273906</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>692.9625378792909</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N15" t="n">
-        <v>1320.560501433898</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>1872.470231673185</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2296.093381168253</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2529.355041543136</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782999</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038386</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797788</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910813</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570822</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279807</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580265</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235169</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.50678425811</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602308</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396421</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1500.747069396421</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1272.757518498404</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1272.757518498404</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,64 +5501,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797193</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>119.2902967703784</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703784</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>789.7592298206044</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C19" t="n">
-        <v>620.8230468926976</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D19" t="n">
-        <v>470.7064074803618</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E19" t="n">
-        <v>322.7933138979687</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5695,28 +5695,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>971.4076946508442</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,61 +5738,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.5840502527391</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L21" t="n">
-        <v>634.5603720565524</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M21" t="n">
-        <v>1231.938859683104</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>707.6725264685181</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C22" t="n">
-        <v>538.7363435406112</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282754</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458823</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797193</v>
+        <v>229.5592957321584</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797193</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797193</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5938,22 +5938,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>889.3209912987578</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5978,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,22 +6060,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>245.2306927803938</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>707.6725264685181</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406112</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282754</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458823</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>889.3209912987578</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6203,70 +6203,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273909</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>867.8220324314346</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M27" t="n">
-        <v>1465.200520057987</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N27" t="n">
-        <v>2092.798483612593</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.672526468518</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282754</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458823</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797191</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797191</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y28" t="n">
-        <v>889.3209912987577</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="29">
@@ -6449,34 +6449,34 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6488,10 +6488,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466572</v>
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373306</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>680.448174698413</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>530.3315352860773</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E31" t="n">
-        <v>382.4184417036842</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>235.5284942057738</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1398.968683817746</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>950.1865537761984</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,34 +6686,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>924.8344286397185</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1522.21291626627</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N33" t="n">
-        <v>2149.810879820877</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>800.5007694647281</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>631.5645865368213</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>481.4479471244855</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>982.1492342949679</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6923,34 +6923,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,19 +7011,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L36" t="n">
-        <v>680.0291294438171</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>726.955532171245</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>558.0193492433381</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2228.516012088501</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2008.914547111442</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1719.83932045564</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1465.154832249753</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1175.737662212792</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>947.7481113147751</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>726.955532171245</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7154,28 +7154,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>847.6442739835331</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711974</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111709</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="42">
@@ -7476,40 +7476,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>800.5007694647277</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="C43" t="n">
-        <v>631.5645865368208</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="D43" t="n">
-        <v>481.447947124485</v>
+        <v>194.80077839983</v>
       </c>
       <c r="E43" t="n">
-        <v>333.5348535420919</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797748</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T43" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U43" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X43" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y43" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="44">
@@ -7634,31 +7634,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192606</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111685</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075781</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7889117913853</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.167399417937</v>
+        <v>842.6091804069463</v>
       </c>
       <c r="N45" t="n">
-        <v>1963.765362972544</v>
+        <v>1307.627092998423</v>
       </c>
       <c r="O45" t="n">
-        <v>1963.765362972544</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>724.7519863413023</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="C46" t="n">
-        <v>555.8158034133954</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>365.9405071576795</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>219.0505596597691</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>219.0505596597691</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T46" t="n">
-        <v>2188.359466111739</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U46" t="n">
-        <v>1899.284239455937</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1644.59975125005</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1355.182581213089</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X46" t="n">
-        <v>1127.193030315072</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y46" t="n">
-        <v>906.400451171542</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.882938249764265e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>-6.679101716144942e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -23416,13 +23416,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>92.15795203868053</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>26.98982571067649</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7.482525529408463</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>6.9224211125171</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>25.74504007796071</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>112.4047682534897</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>191.8807364711619</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24367,13 +24367,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -24382,7 +24382,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>191.8807364711619</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>40.32043864788582</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>191.8807364711618</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>80.03780599355763</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>122.8084169651565</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>73.62417772602082</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>31.13893193492407</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25549,22 +25549,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>213.9188905722449</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>46.45968844822961</v>
       </c>
       <c r="F43" t="n">
-        <v>73.62417772602126</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26035,13 +26035,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>97.5789915191101</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>142.4141550350968</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>759419.4279785145</v>
+        <v>759419.4279785141</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>759419.4279785142</v>
+        <v>759419.4279785143</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>759419.4279785142</v>
+        <v>759419.4279785141</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>759419.4279785143</v>
+        <v>759419.4279785142</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>759419.4279785143</v>
+        <v>759419.4279785142</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>759419.4279785143</v>
+        <v>759419.4279785142</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>759419.4279785143</v>
+        <v>759419.4279785142</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>759419.4279785142</v>
+        <v>759419.4279785143</v>
       </c>
     </row>
   </sheetData>
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>677359.4601380335</v>
+      </c>
+      <c r="C2" t="n">
         <v>677359.4601380338</v>
-      </c>
-      <c r="C2" t="n">
-        <v>677359.4601380335</v>
       </c>
       <c r="D2" t="n">
         <v>677359.4601380338</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.944744255</v>
       </c>
       <c r="F2" t="n">
-        <v>665895.9447442554</v>
+        <v>665895.944744255</v>
       </c>
       <c r="G2" t="n">
+        <v>665895.9447442553</v>
+      </c>
+      <c r="H2" t="n">
         <v>665895.9447442552</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>665895.944744255</v>
       </c>
-      <c r="I2" t="n">
-        <v>665895.9447442552</v>
-      </c>
       <c r="J2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="K2" t="n">
         <v>665895.9447442549</v>
@@ -26344,16 +26344,16 @@
         <v>665895.944744255</v>
       </c>
       <c r="M2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="N2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.944744255</v>
       </c>
       <c r="O2" t="n">
         <v>665895.9447442548</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442549</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26366,19 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1.469155386075727e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.246394276677165e-10</v>
+        <v>4.781995812663809e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551169</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.094354047381785e-10</v>
+        <v>4.620387699105777e-10</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.612356754776556e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,34 +26415,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319405</v>
+        <v>92793.84288319404</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319405</v>
+        <v>92793.84288319392</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319404</v>
+        <v>92793.84288319398</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184268</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="F4" t="n">
+        <v>13606.8081118428</v>
+      </c>
+      <c r="G4" t="n">
         <v>13606.80811184275</v>
       </c>
-      <c r="G4" t="n">
-        <v>13606.80811184265</v>
-      </c>
       <c r="H4" t="n">
-        <v>13606.80811184268</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="I4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="J4" t="n">
-        <v>13606.80811184268</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="K4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184278</v>
       </c>
       <c r="L4" t="n">
         <v>13606.80811184274</v>
@@ -26451,13 +26451,13 @@
         <v>13606.80811184275</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184277</v>
       </c>
       <c r="O4" t="n">
-        <v>13606.80811184276</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-852113.0690341461</v>
+        <v>-852113.0690341466</v>
       </c>
       <c r="C6" t="n">
-        <v>476631.6766934461</v>
+        <v>476631.6766934464</v>
       </c>
       <c r="D6" t="n">
-        <v>476631.6766934462</v>
+        <v>476631.6766934465</v>
       </c>
       <c r="E6" t="n">
-        <v>225754.1450011498</v>
+        <v>225719.4070757149</v>
       </c>
       <c r="F6" t="n">
-        <v>551166.6068085055</v>
+        <v>551131.8688830695</v>
       </c>
       <c r="G6" t="n">
-        <v>551166.6068085053</v>
+        <v>551131.8688830694</v>
       </c>
       <c r="H6" t="n">
-        <v>551166.6068085051</v>
+        <v>551131.8688830696</v>
       </c>
       <c r="I6" t="n">
-        <v>551166.6068085053</v>
+        <v>551131.8688830697</v>
       </c>
       <c r="J6" t="n">
-        <v>333635.4044112279</v>
+        <v>333600.6664857918</v>
       </c>
       <c r="K6" t="n">
-        <v>551166.6068085053</v>
+        <v>551131.8688830695</v>
       </c>
       <c r="L6" t="n">
-        <v>551166.6068085053</v>
+        <v>551131.8688830695</v>
       </c>
       <c r="M6" t="n">
-        <v>466111.5788729934</v>
+        <v>466076.8409475577</v>
       </c>
       <c r="N6" t="n">
-        <v>551166.6068085051</v>
+        <v>551131.8688830696</v>
       </c>
       <c r="O6" t="n">
-        <v>551166.6068085049</v>
+        <v>551131.8688830689</v>
       </c>
       <c r="P6" t="n">
-        <v>551166.606808505</v>
+        <v>551131.8688830694</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593299</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022932</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099649</v>
@@ -26808,10 +26808,10 @@
         <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26957,38 +26957,38 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>278.198799748375</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4.547473508864641e-13</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="E3" t="n">
-        <v>278.1987997483754</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,16 +27042,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>66.84743663721122</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>220.3828213502003</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>55.41218355301392</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27543,19 +27543,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,22 +27585,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>62.23731665549366</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89.0930697451754</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>309.8193423825438</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,7 +27625,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27670,7 +27670,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27777,22 +27777,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>87.73354564212326</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.9271955254634</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>222.9250743103408</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>9.345240527139708</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,10 +27913,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28011,16 +28011,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,25 +28059,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>136.9698866949898</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>226.0860865689203</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-5.621818412198717e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28506,7 +28506,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.637841752077283e-12</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>-1.211516110621223e-12</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29326,7 +29326,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>-1.111471693426201e-12</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30466,7 +30466,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31048,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31200,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31604,7 +31604,7 @@
         <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.512347035315</v>
       </c>
       <c r="L9" t="n">
         <v>508.9565619138797</v>
@@ -31622,7 +31622,7 @@
         <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987476</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905542</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>526.2989357561996</v>
+        <v>344.2757660550401</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31911,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>193.1175412796314</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>169.6252075171348</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32148,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,13 +32312,13 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>163.5723821283049</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862122</v>
@@ -32330,7 +32330,7 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>375.5996128485291</v>
@@ -32476,7 +32476,7 @@
         <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162575</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
         <v>965.6463440175677</v>
@@ -32546,25 +32546,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>260.171071406825</v>
       </c>
       <c r="L21" t="n">
-        <v>194.5189324111248</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214699</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,37 +32789,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>581.3243739860822</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>430.136771173632</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N30" t="n">
-        <v>602.4605829984174</v>
+        <v>320.9147064709969</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,46 +33333,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236497</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>512.9101366533177</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>165.2255134509767</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33655,34 +33655,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>240.4469701760385</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>251.886104915025</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33968,16 +33968,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,13 +33986,13 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>567.7870775946151</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>463.9598929192557</v>
+        <v>602.4605829984165</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663251</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>601.0567753070476</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P45" t="n">
-        <v>493.6049778318539</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.670908060956</v>
       </c>
       <c r="L9" t="n">
         <v>370.4021821340056</v>
@@ -35270,7 +35270,7 @@
         <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127261</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>394.9572236728663</v>
+        <v>212.9340539717068</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>61.77582919629807</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>23.94570355317081</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295757</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>25.73094315394594</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35978,7 +35978,7 @@
         <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625076</v>
@@ -36124,7 +36124,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462702</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
         <v>735.300110790295</v>
@@ -36194,25 +36194,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>122.329632432466</v>
       </c>
       <c r="L21" t="n">
-        <v>55.96455263125056</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071396</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>439.1903400640638</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>291.5823913937579</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N30" t="n">
-        <v>471.1188709150841</v>
+        <v>189.5729943876636</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>370.3138922088733</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>31.25110603664647</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>101.8925903961643</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>285.360777932</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,13 +37634,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>425.1908331501707</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>332.6181808359224</v>
+        <v>471.1188709150832</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789219</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,25 +37935,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q43" t="n">
         <v>120.4022572998984</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396388</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>469.7150632237143</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P45" t="n">
-        <v>359.6305704175236</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789219</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,25 +38172,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q46" t="n">
         <v>120.4022572998984</v>
